--- a/biology/Biochimie/Salvinorines/Salvinorines.xlsx
+++ b/biology/Biochimie/Salvinorines/Salvinorines.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les salvinorines sont un groupe de substances structurellement apparentées. La plus connue est la salvinorine A, mais l'on a décrit des salvinorines B, C, D, E, F. 
 La salvinorine A semble être la seule salvinorine naturelle active. La salvinorine B est l'analogue désacétylé de la salvinorine A et n'a pas d'activité connue sur l'Homme. On a supposé que la salvinorine C pourrait être un peu plus puissante que la salvinorine A, mais des tests humains et des tests de liaison au récepteur n'ont pu le confirmer.
@@ -512,7 +524,9 @@
           <t>Article connexe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Furanolactone
 Sur les autres projets Wikimedia :
